--- a/Language/top 10 language - big table.xlsx
+++ b/Language/top 10 language - big table.xlsx
@@ -45,10 +45,10 @@
     <t>Italian</t>
   </si>
   <si>
-    <t>Time : 1'40''</t>
-  </si>
-  <si>
     <t>Haitian Creole</t>
+  </si>
+  <si>
+    <t>Time : 1'41''</t>
   </si>
 </sst>
 </file>
@@ -188,24 +188,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="135112192"/>
-        <c:axId val="135113728"/>
+        <c:axId val="106315776"/>
+        <c:axId val="106317312"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="135112192"/>
+        <c:axId val="106315776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="135113728"/>
+        <c:crossAx val="106317312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="135113728"/>
+        <c:axId val="106317312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -213,7 +213,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="135112192"/>
+        <c:crossAx val="106315776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -222,7 +222,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -551,7 +551,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -633,7 +633,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" s="1">
         <v>108428</v>
@@ -641,7 +641,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Language/top 10 language - big table.xlsx
+++ b/Language/top 10 language - big table.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>English</t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>Time : 1'41''</t>
+  </si>
+  <si>
+    <t>Others</t>
   </si>
 </sst>
 </file>
@@ -188,24 +191,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="106315776"/>
-        <c:axId val="106317312"/>
+        <c:axId val="84496384"/>
+        <c:axId val="84497920"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="106315776"/>
+        <c:axId val="84496384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106317312"/>
+        <c:crossAx val="84497920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="106317312"/>
+        <c:axId val="84497920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -213,7 +216,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106315776"/>
+        <c:crossAx val="84496384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -222,7 +225,149 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="fr-FR"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>Shouting</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-FR" baseline="0"/>
+              <a:t> languages - Full Table</a:t>
+            </a:r>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dLbls>
+            <c:showPercent val="1"/>
+            <c:showLeaderLines val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Feuil1!$A$1:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>English</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Spanish</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Portuguese</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Indonesian</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Arabic</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>French</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>German</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Russian</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Italian</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Haitian Creole</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Others</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil1!$B$1:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>11019101</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2300218</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>577033</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>331298</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>304008</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>245790</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>130793</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>124032</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>120690</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>108428</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>612499</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showPercent val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -255,6 +400,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Graphique 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -551,7 +726,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -637,6 +812,15 @@
       </c>
       <c r="B10" s="1">
         <v>108428</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="1">
+        <f xml:space="preserve"> 15873890 - SUM(B1:B10)</f>
+        <v>612499</v>
       </c>
     </row>
     <row r="13" spans="1:2">
